--- a/TOR130 Data/100x100trail/TOR130_2023.xlsx
+++ b/TOR130 Data/100x100trail/TOR130_2023.xlsx
@@ -1558,7 +1558,7 @@
     <t>Jung Daniel</t>
   </si>
   <si>
-    <t>Ruchaud  Regis</t>
+    <t>Ruchaud Regis</t>
   </si>
   <si>
     <t>Jeannet Gael</t>
@@ -1576,7 +1576,7 @@
     <t>Dematteis Enrica</t>
   </si>
   <si>
-    <t>Remacle  Laurent</t>
+    <t>Remacle Laurent</t>
   </si>
   <si>
     <t>Ganassi Spallanzani Federico</t>
@@ -1585,7 +1585,7 @@
     <t>Stevenin Elia</t>
   </si>
   <si>
-    <t>Lejeune  Emilien</t>
+    <t>Lejeune Emilien</t>
   </si>
   <si>
     <t>Valz Gen Agnese</t>
@@ -1654,7 +1654,7 @@
     <t>Zani Lorenzo</t>
   </si>
   <si>
-    <t>Bertelli  Mauro</t>
+    <t>Bertelli Mauro</t>
   </si>
   <si>
     <t>Domenighetti Nicola</t>
@@ -1690,7 +1690,7 @@
     <t>Famlonga Flavio</t>
   </si>
   <si>
-    <t>D Antuono Roberto</t>
+    <t>DAntuono Roberto</t>
   </si>
   <si>
     <t>Kasnanen Heikki</t>
@@ -1861,7 +1861,7 @@
     <t>Canni Ferrari Eugenio Maria</t>
   </si>
   <si>
-    <t>Luengo  Silvio Eduardo</t>
+    <t>Luengo Silvio Eduardo</t>
   </si>
   <si>
     <t>Kruk Sawomir</t>
@@ -1963,7 +1963,7 @@
     <t>Garnier Alain</t>
   </si>
   <si>
-    <t>Frattini  Mirko</t>
+    <t>Frattini Mirko</t>
   </si>
   <si>
     <t>Duranti Luca</t>
@@ -2032,7 +2032,7 @@
     <t>Martignon Angelo</t>
   </si>
   <si>
-    <t>Lometto  Filippo</t>
+    <t>Lometto Filippo</t>
   </si>
   <si>
     <t>Cane Mauro</t>
@@ -2044,7 +2044,7 @@
     <t>Mazzoleni Gianluca</t>
   </si>
   <si>
-    <t>Molczyk  ukasz</t>
+    <t>Molczyk ukasz</t>
   </si>
   <si>
     <t>Colombo Michele</t>
@@ -2065,7 +2065,7 @@
     <t>Giraud Jacques</t>
   </si>
   <si>
-    <t>Bejinariu  Marius Alin</t>
+    <t>Bejinariu Marius Alin</t>
   </si>
   <si>
     <t>Catel Elise</t>
@@ -2074,7 +2074,7 @@
     <t>Alves Ester</t>
   </si>
   <si>
-    <t>Cogliati  Gionata</t>
+    <t>Cogliati Gionata</t>
   </si>
   <si>
     <t>Lussana Emil</t>
@@ -2125,7 +2125,7 @@
     <t>Ghezzi Luca</t>
   </si>
   <si>
-    <t>Zanetti  Walter</t>
+    <t>Zanetti Walter</t>
   </si>
   <si>
     <t>Bruno Stefania</t>
@@ -2155,7 +2155,7 @@
     <t>Peressin Marco</t>
   </si>
   <si>
-    <t>Oldani  Cristiano</t>
+    <t>Oldani Cristiano</t>
   </si>
   <si>
     <t>Latis Dan Mihai</t>
@@ -2176,13 +2176,13 @@
     <t>Almeida Marco</t>
   </si>
   <si>
-    <t>Papaevangelou  Nikolaos</t>
+    <t>Papaevangelou Nikolaos</t>
   </si>
   <si>
     <t>Lepore Emanuele</t>
   </si>
   <si>
-    <t>Forcuti  Marco</t>
+    <t>Forcuti Marco</t>
   </si>
   <si>
     <t>Tenderini Marco</t>
@@ -2260,7 +2260,7 @@
     <t>Innocenti Daniele</t>
   </si>
   <si>
-    <t>Denchasaz  Fabrizio</t>
+    <t>Denchasaz Fabrizio</t>
   </si>
   <si>
     <t>Van Cuyck Tom</t>
@@ -2269,7 +2269,7 @@
     <t>Bellone Andrea</t>
   </si>
   <si>
-    <t>Gay Hugues  Flo</t>
+    <t>Gay Hugues Flo</t>
   </si>
   <si>
     <t>Pollatz Marion</t>
@@ -2419,7 +2419,7 @@
     <t>Gamba Ezio</t>
   </si>
   <si>
-    <t>Pitti  Johnni Adolfo</t>
+    <t>Pitti Johnni Adolfo</t>
   </si>
   <si>
     <t>Xu Wenwei</t>
@@ -2458,7 +2458,7 @@
     <t>Moreau Gregory</t>
   </si>
   <si>
-    <t>Lebarbe  Yannick</t>
+    <t>Lebarbe Yannick</t>
   </si>
   <si>
     <t>Ramundo Michele</t>
@@ -2500,7 +2500,7 @@
     <t>Thauvin Nina</t>
   </si>
   <si>
-    <t>Perez  Ivana Belen</t>
+    <t>Perez Ivana Belen</t>
   </si>
   <si>
     <t>Sroka Lucyna</t>
@@ -2521,7 +2521,7 @@
     <t>Capra Manuela</t>
   </si>
   <si>
-    <t>Ambrosini  Luca</t>
+    <t>Ambrosini Luca</t>
   </si>
   <si>
     <t>Casarotto Riccardo</t>
@@ -2602,7 +2602,7 @@
     <t>Calmelet Francois</t>
   </si>
   <si>
-    <t>Cappellazzo  Gabriele</t>
+    <t>Cappellazzo Gabriele</t>
   </si>
   <si>
     <t>Baglione Massimo</t>
@@ -2617,7 +2617,7 @@
     <t>Biasini Enrico</t>
   </si>
   <si>
-    <t>Schnitzer  Petra</t>
+    <t>Schnitzer Petra</t>
   </si>
   <si>
     <t>Malara Antonio</t>
@@ -2689,7 +2689,7 @@
     <t>Ancellin Christophe</t>
   </si>
   <si>
-    <t>Saletti  Ivano</t>
+    <t>Saletti Ivano</t>
   </si>
   <si>
     <t>Bossen Erik</t>
@@ -2737,13 +2737,13 @@
     <t>Mantero Teresa</t>
   </si>
   <si>
-    <t>Albani  Roberto</t>
+    <t>Albani Roberto</t>
   </si>
   <si>
     <t>Paris Giovanni</t>
   </si>
   <si>
-    <t>Darbyshire  Mark</t>
+    <t>Darbyshire Mark</t>
   </si>
   <si>
     <t>Casabonne Diego</t>
@@ -2821,7 +2821,7 @@
     <t>Sibona Maurzio</t>
   </si>
   <si>
-    <t>Vikarsson  David</t>
+    <t>Vikarsson David</t>
   </si>
   <si>
     <t>Thorarinsson Sigurdur</t>
@@ -2881,7 +2881,7 @@
     <t>Debel Evelyne</t>
   </si>
   <si>
-    <t>Gogniat  Magali</t>
+    <t>Gogniat Magali</t>
   </si>
   <si>
     <t>Morris Andrew</t>
@@ -2890,7 +2890,7 @@
     <t>Cuenat Stephane</t>
   </si>
   <si>
-    <t>Pramotton  Federica</t>
+    <t>Pramotton Federica</t>
   </si>
   <si>
     <t>Herault Frederic</t>
@@ -2917,7 +2917,7 @@
     <t>Collet Benoit</t>
   </si>
   <si>
-    <t>Vigano  Piero Francesco</t>
+    <t>Vigano Piero Francesco</t>
   </si>
   <si>
     <t>Sorensen Christian</t>
@@ -2974,7 +2974,7 @@
     <t>Miel Antoine</t>
   </si>
   <si>
-    <t>Daniele  Pierfederico</t>
+    <t>Daniele Pierfederico</t>
   </si>
   <si>
     <t>Trevisan Maurizio</t>
